--- a/meta_stra_framwork/result/jiang_2/expre.xlsx
+++ b/meta_stra_framwork/result/jiang_2/expre.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>expression</t>
   </si>
@@ -22,19 +22,13 @@
     <t>unit_net_value</t>
   </si>
   <si>
-    <t>['close_MA_5#close_MA_20#1&amp;cross', 'close_MA_5#close_MA_10#0&amp;cross']</t>
+    <t>['close_MA_5#close_MA_30#1&amp;cross', 'close_MA_5#1#0&amp;trend']</t>
   </si>
   <si>
-    <t>['close_MA_10#close_MA_20#1&amp;cross', 'close_MA_10#close_MA_10#0&amp;cross']</t>
+    <t>['close_MA_10#close_MA_30#1&amp;cross', 'close_MA_10#1#0&amp;trend']</t>
   </si>
   <si>
-    <t>['close_MA_10#close_MA_20#1&amp;cross', 'close_MA_5#close_MA_20#0&amp;cross']</t>
-  </si>
-  <si>
-    <t>['close_MA_5#close_MA_40#1&amp;cross', 'close_MA_10#close_MA_10#0&amp;cross']</t>
-  </si>
-  <si>
-    <t>['close_MA_5#close_MA_40#1&amp;cross', 'close_MA_5#close_MA_20#0&amp;cross']</t>
+    <t>['close_MA_5#close_MA_60#1&amp;cross', 'close_MA_10#1#0&amp;trend']</t>
   </si>
 </sst>
 </file>
@@ -392,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -414,7 +408,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>1.009</v>
+        <v>0.986</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -425,7 +419,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>4.618</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -436,29 +430,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>1.006</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>3.993</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>1.021</v>
+        <v>0.992</v>
       </c>
     </row>
   </sheetData>
